--- a/Tab_6a_Zeitreihen.xlsx
+++ b/Tab_6a_Zeitreihen.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -503,8 +503,8 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="26.8046875"/>
     <col customWidth="true" min="2" max="2" width="21.82421875"/>
-    <col customWidth="true" min="3" max="3" width="20.9453125"/>
-    <col customWidth="true" min="4" max="4" width="18.30859375"/>
+    <col customWidth="true" min="3" max="3" width="27.390625"/>
+    <col customWidth="true" min="4" max="4" width="32.95703125"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="18.015625"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
@@ -645,6 +645,28 @@
         <v>50</v>
       </c>
     </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Generation of renewable energies as a share of gross final energy consumption</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_6a_Zeitreihen.xlsx
+++ b/Tab_6a_Zeitreihen.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -503,7 +503,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="26.8046875"/>
     <col customWidth="true" min="2" max="2" width="21.82421875"/>
-    <col customWidth="true" min="3" max="3" width="27.390625"/>
+    <col customWidth="true" min="3" max="3" width="72.5078125"/>
     <col customWidth="true" min="4" max="4" width="32.95703125"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="18.015625"/>
@@ -580,90 +580,256 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Materielle Deprivation</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
-        </is>
-      </c>
-      <c r="E2" s="5">
-        <v>2050</v>
-      </c>
-      <c r="F2" s="6">
-        <v>239.4</v>
+          <t>Material deprivation</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Erhebliche materielle Deprivation</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
-        </is>
-      </c>
-      <c r="E3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F3" s="6">
-        <v>80</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="H3" s="6">
-        <v>70</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2050</v>
-      </c>
-      <c r="J3" s="6">
-        <v>50</v>
+          <t>Severe material deprivation</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieproduktivität</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Final energy productivity</t>
+        </is>
+      </c>
+      <c r="E4" s="5">
+        <v>2050</v>
+      </c>
+      <c r="F4" s="6">
+        <v>239.4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Primärenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Primary energy consumption</t>
+        </is>
+      </c>
+      <c r="E5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="6">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2030</v>
+      </c>
+      <c r="H5" s="6">
+        <v>70</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2050</v>
+      </c>
+      <c r="J5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
           <t>Z07_B02_P01_Ib01_I01_Z01</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Generation of renewable energies as a share of gross final energy consumption</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Berechnete jährliche Werte</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Calculated annual values</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z02</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Moving five-year average shown for each middle year</t>
+        </is>
+      </c>
+      <c r="E8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Daten des Statistischen Bundesamtes</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Data from the Federal Statistical Office</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z02</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Daten des BMEL</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="E10" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
